--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.24.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.24.xlsx
@@ -154,6 +154,9 @@
     <t>אני יודעת פשוט אתה יודע</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
   </si>
   <si>
@@ -302,9 +305,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1267,7 +1267,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
         <v>81</v>
-      </c>
-      <c r="B62" t="s">
-        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -1894,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1908,10 +1908,10 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1936,7 +1936,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -1978,10 +1978,10 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -2020,7 +2020,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2034,7 +2034,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2048,7 +2048,7 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2104,10 +2104,10 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2121,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2146,10 +2146,10 @@
         <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2160,7 +2160,7 @@
         <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2174,7 +2174,7 @@
         <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2244,10 +2244,10 @@
         <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2272,10 +2272,10 @@
         <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2286,7 +2286,7 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2412,7 +2412,7 @@
         <v>141</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2440,7 +2440,7 @@
         <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2485,7 +2485,7 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2496,7 +2496,7 @@
         <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -2510,7 +2510,7 @@
         <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -2524,7 +2524,7 @@
         <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2538,7 +2538,7 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2566,7 +2566,7 @@
         <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2594,7 +2594,7 @@
         <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2622,7 +2622,7 @@
         <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -2636,7 +2636,7 @@
         <v>156</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
